--- a/sputnik/personal/cel/cel83.xlsx
+++ b/sputnik/personal/cel/cel83.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,12 +200,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -220,6 +220,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,7 +531,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D9"/>
+      <selection activeCell="A10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,12 +643,28 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="21">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="21">
+        <v>44064</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>

--- a/sputnik/personal/cel/cel83.xlsx
+++ b/sputnik/personal/cel/cel83.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,7 +211,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,7 +564,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -571,7 +576,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -583,67 +588,67 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>431</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43586</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1449</v>
       </c>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43763</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43763</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43763</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>43952</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -655,7 +660,7 @@
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>44064</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -667,12 +672,64 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="20">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="20">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1619</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel83.xlsx
+++ b/sputnik/personal/cel/cel83.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,10 +696,16 @@
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="20">
+        <v>44494</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
